--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H2">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I2">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J2">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1243963333333333</v>
+        <v>0.366738</v>
       </c>
       <c r="N2">
-        <v>0.373189</v>
+        <v>1.100214</v>
       </c>
       <c r="O2">
-        <v>0.4260634775659321</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.4260634775659322</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.9096478557764444</v>
+        <v>6.386687503792001</v>
       </c>
       <c r="R2">
-        <v>8.186830701987999</v>
+        <v>57.48018753412801</v>
       </c>
       <c r="S2">
-        <v>0.02543842908207342</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="T2">
-        <v>0.02543842908207342</v>
+        <v>0.1047285618770465</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.312497333333333</v>
+        <v>29.68221266666667</v>
       </c>
       <c r="H3">
-        <v>21.937492</v>
+        <v>89.046638</v>
       </c>
       <c r="I3">
-        <v>0.05970572560549241</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J3">
-        <v>0.05970572560549241</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1675703333333333</v>
+        <v>0.366738</v>
       </c>
       <c r="N3">
-        <v>0.502711</v>
+        <v>1.100214</v>
       </c>
       <c r="O3">
-        <v>0.5739365224340678</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.5739365224340678</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.225357615645778</v>
+        <v>10.885595308948</v>
       </c>
       <c r="R3">
-        <v>11.028218540812</v>
+        <v>97.970357780532</v>
       </c>
       <c r="S3">
-        <v>0.03426729652341899</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="T3">
-        <v>0.03426729652341899</v>
+        <v>0.1785014126970782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.68221266666667</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H4">
-        <v>89.046638</v>
+        <v>252.091537</v>
       </c>
       <c r="I4">
-        <v>0.242351957758873</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J4">
-        <v>0.242351957758873</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1243963333333333</v>
+        <v>0.366738</v>
       </c>
       <c r="N4">
-        <v>0.373189</v>
+        <v>1.100214</v>
       </c>
       <c r="O4">
-        <v>0.4260634775659321</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.4260634775659322</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>3.692358420953556</v>
+        <v>30.817182032102</v>
       </c>
       <c r="R4">
-        <v>33.231225788582</v>
+        <v>277.354638288918</v>
       </c>
       <c r="S4">
-        <v>0.1032573179176573</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="T4">
-        <v>0.1032573179176573</v>
+        <v>0.5053385113032314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,294 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.68221266666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H5">
-        <v>89.046638</v>
+        <v>105.474042</v>
       </c>
       <c r="I5">
-        <v>0.242351957758873</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J5">
-        <v>0.242351957758873</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1675703333333333</v>
+        <v>0.366738</v>
       </c>
       <c r="N5">
-        <v>0.502711</v>
+        <v>1.100214</v>
       </c>
       <c r="O5">
-        <v>0.5739365224340678</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.5739365224340678</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>4.973858270624223</v>
+        <v>12.893779738332</v>
       </c>
       <c r="R5">
-        <v>44.764724435618</v>
+        <v>116.044017644988</v>
       </c>
       <c r="S5">
-        <v>0.1390946398412157</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="T5">
-        <v>0.1390946398412156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>74.41623166666666</v>
-      </c>
-      <c r="H6">
-        <v>223.248695</v>
-      </c>
-      <c r="I6">
-        <v>0.6076002364105371</v>
-      </c>
-      <c r="J6">
-        <v>0.6076002364105371</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1243963333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.373189</v>
-      </c>
-      <c r="O6">
-        <v>0.4260634775659321</v>
-      </c>
-      <c r="P6">
-        <v>0.4260634775659322</v>
-      </c>
-      <c r="Q6">
-        <v>9.257106359817222</v>
-      </c>
-      <c r="R6">
-        <v>83.313957238355</v>
-      </c>
-      <c r="S6">
-        <v>0.2588762696949559</v>
-      </c>
-      <c r="T6">
-        <v>0.2588762696949559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>74.41623166666666</v>
-      </c>
-      <c r="H7">
-        <v>223.248695</v>
-      </c>
-      <c r="I7">
-        <v>0.6076002364105371</v>
-      </c>
-      <c r="J7">
-        <v>0.6076002364105371</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.1675703333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.502711</v>
-      </c>
-      <c r="O7">
-        <v>0.5739365224340678</v>
-      </c>
-      <c r="P7">
-        <v>0.5739365224340678</v>
-      </c>
-      <c r="Q7">
-        <v>12.46995274579389</v>
-      </c>
-      <c r="R7">
-        <v>112.229574712145</v>
-      </c>
-      <c r="S7">
-        <v>0.3487239667155811</v>
-      </c>
-      <c r="T7">
-        <v>0.3487239667155811</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>11.06470466666667</v>
-      </c>
-      <c r="H8">
-        <v>33.194114</v>
-      </c>
-      <c r="I8">
-        <v>0.09034208022509747</v>
-      </c>
-      <c r="J8">
-        <v>0.09034208022509749</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.1243963333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.373189</v>
-      </c>
-      <c r="O8">
-        <v>0.4260634775659321</v>
-      </c>
-      <c r="P8">
-        <v>0.4260634775659322</v>
-      </c>
-      <c r="Q8">
-        <v>1.376408689949555</v>
-      </c>
-      <c r="R8">
-        <v>12.387678209546</v>
-      </c>
-      <c r="S8">
-        <v>0.03849146087124546</v>
-      </c>
-      <c r="T8">
-        <v>0.03849146087124547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>11.06470466666667</v>
-      </c>
-      <c r="H9">
-        <v>33.194114</v>
-      </c>
-      <c r="I9">
-        <v>0.09034208022509747</v>
-      </c>
-      <c r="J9">
-        <v>0.09034208022509749</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.1675703333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.502711</v>
-      </c>
-      <c r="O9">
-        <v>0.5739365224340678</v>
-      </c>
-      <c r="P9">
-        <v>0.5739365224340678</v>
-      </c>
-      <c r="Q9">
-        <v>1.854116249228222</v>
-      </c>
-      <c r="R9">
-        <v>16.687046243054</v>
-      </c>
-      <c r="S9">
-        <v>0.05185061935385201</v>
-      </c>
-      <c r="T9">
-        <v>0.05185061935385202</v>
+        <v>0.2114315141226439</v>
       </c>
     </row>
   </sheetData>
